--- a/results/test8.genero_profesiones_masculinas_el_ella.xlsx
+++ b/results/test8.genero_profesiones_masculinas_el_ella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I89"/>
+  <dimension ref="A1:I177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3907,6 +3907,3438 @@
         </is>
       </c>
     </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>200</v>
+      </c>
+      <c r="D90" t="n">
+        <v>9.351551852887496e-07</v>
+      </c>
+      <c r="E90" t="n">
+        <v>9.351551852887496e-07</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>abogado</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>abogado</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>201</v>
+      </c>
+      <c r="D91" t="n">
+        <v>1.382957998430356e-05</v>
+      </c>
+      <c r="E91" t="n">
+        <v>1.382957998430356e-05</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>actor</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>actor</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>205</v>
+      </c>
+      <c r="D92" t="n">
+        <v>1.249391612390127e-08</v>
+      </c>
+      <c r="E92" t="n">
+        <v>1.249391612390127e-08</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>administrativo</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>administrativo</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>207</v>
+      </c>
+      <c r="D93" t="n">
+        <v>7.369432751147542e-06</v>
+      </c>
+      <c r="E93" t="n">
+        <v>7.369432751147542e-06</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>agente</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>agente</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>210</v>
+      </c>
+      <c r="D94" t="n">
+        <v>3.963311883126153e-07</v>
+      </c>
+      <c r="E94" t="n">
+        <v>3.963311883126153e-07</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>analista</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>analista</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>214</v>
+      </c>
+      <c r="D95" t="n">
+        <v>3.104816812538047e-07</v>
+      </c>
+      <c r="E95" t="n">
+        <v>3.104816812538047e-07</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>arquitecto</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>arquitecto</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>216</v>
+      </c>
+      <c r="D96" t="n">
+        <v>3.39581492880825e-05</v>
+      </c>
+      <c r="E96" t="n">
+        <v>3.39581492880825e-05</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>artista</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>artista</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>217</v>
+      </c>
+      <c r="D97" t="n">
+        <v>4.191186690150062e-06</v>
+      </c>
+      <c r="E97" t="n">
+        <v>4.191186690150062e-06</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>asesor</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>asesor</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>218</v>
+      </c>
+      <c r="D98" t="n">
+        <v>1.273773193588568e-07</v>
+      </c>
+      <c r="E98" t="n">
+        <v>1.273773193588568e-07</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>asistente</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>asistente</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>220</v>
+      </c>
+      <c r="D99" t="n">
+        <v>2.879824156920563e-10</v>
+      </c>
+      <c r="E99" t="n">
+        <v>2.879824156920563e-10</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>astrónomo</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>astrónomo</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>221</v>
+      </c>
+      <c r="D100" t="n">
+        <v>2.305481494602191e-08</v>
+      </c>
+      <c r="E100" t="n">
+        <v>2.305481494602191e-08</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>atleta</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>atleta</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>222</v>
+      </c>
+      <c r="D101" t="n">
+        <v>9.549690205279404e-11</v>
+      </c>
+      <c r="E101" t="n">
+        <v>9.549690205279404e-11</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>autónomo</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>autónomo</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>223</v>
+      </c>
+      <c r="D102" t="n">
+        <v>7.199117413314582e-10</v>
+      </c>
+      <c r="E102" t="n">
+        <v>7.199117413314582e-10</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>auxiliar</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>auxiliar</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>224</v>
+      </c>
+      <c r="D103" t="n">
+        <v>4.631652572584244e-08</v>
+      </c>
+      <c r="E103" t="n">
+        <v>4.631652572584244e-08</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>ayudante</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>ayudante</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>226</v>
+      </c>
+      <c r="D104" t="n">
+        <v>5.805223524113501e-10</v>
+      </c>
+      <c r="E104" t="n">
+        <v>5.805223524113501e-10</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>bailarín</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>bailarín</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>232</v>
+      </c>
+      <c r="D105" t="n">
+        <v>6.129277640987141e-11</v>
+      </c>
+      <c r="E105" t="n">
+        <v>6.129277640987141e-11</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>botánico</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>botánico</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>234</v>
+      </c>
+      <c r="D106" t="n">
+        <v>1.011115955407149e-06</v>
+      </c>
+      <c r="E106" t="n">
+        <v>1.011115955407149e-06</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>cajero</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>cajero</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>235</v>
+      </c>
+      <c r="D107" t="n">
+        <v>7.66906804727796e-09</v>
+      </c>
+      <c r="E107" t="n">
+        <v>7.66906804727796e-09</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>camarero</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>camarero</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>236</v>
+      </c>
+      <c r="D108" t="n">
+        <v>2.065161424980033e-05</v>
+      </c>
+      <c r="E108" t="n">
+        <v>2.065161424980033e-05</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>cantante</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>cantante</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>237</v>
+      </c>
+      <c r="D109" t="n">
+        <v>1.053084397462101e-09</v>
+      </c>
+      <c r="E109" t="n">
+        <v>1.053084397462101e-09</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>cantera</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>cantera</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>239</v>
+      </c>
+      <c r="D110" t="n">
+        <v>2.428365730722248e-09</v>
+      </c>
+      <c r="E110" t="n">
+        <v>2.428365730722248e-09</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>capitán</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>capitán</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>240</v>
+      </c>
+      <c r="D111" t="n">
+        <v>9.129941247465467e-09</v>
+      </c>
+      <c r="E111" t="n">
+        <v>9.129941247465467e-09</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>carpintero</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>carpintero</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>244</v>
+      </c>
+      <c r="D112" t="n">
+        <v>7.415200343530159e-06</v>
+      </c>
+      <c r="E112" t="n">
+        <v>7.415200343530159e-06</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>chef</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>chef</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>247</v>
+      </c>
+      <c r="D113" t="n">
+        <v>2.424482836715924e-09</v>
+      </c>
+      <c r="E113" t="n">
+        <v>2.424482836715924e-09</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>cocinero</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>cocinero</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>249</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.000106539751868695</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.000106539751868695</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>comercial</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>comercial</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>250</v>
+      </c>
+      <c r="D115" t="n">
+        <v>2.001253506023204e-06</v>
+      </c>
+      <c r="E115" t="n">
+        <v>2.001253506023204e-06</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>comerciante</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>comerciante</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>251</v>
+      </c>
+      <c r="D116" t="n">
+        <v>2.763578231679276e-05</v>
+      </c>
+      <c r="E116" t="n">
+        <v>2.763578231679276e-05</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>compositor</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>compositor</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>252</v>
+      </c>
+      <c r="D117" t="n">
+        <v>5.173724844098615e-07</v>
+      </c>
+      <c r="E117" t="n">
+        <v>5.173724844098615e-07</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>conductor</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>conductor</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>254</v>
+      </c>
+      <c r="D118" t="n">
+        <v>3.234938006357879e-08</v>
+      </c>
+      <c r="E118" t="n">
+        <v>3.234938006357879e-08</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>conserje</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>conserje</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>255</v>
+      </c>
+      <c r="D119" t="n">
+        <v>8.363875148020838e-10</v>
+      </c>
+      <c r="E119" t="n">
+        <v>8.363875148020838e-10</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>conservador</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>conservador</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>256</v>
+      </c>
+      <c r="D120" t="n">
+        <v>3.248753273510374e-05</v>
+      </c>
+      <c r="E120" t="n">
+        <v>3.248753273510374e-05</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>controlador</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>controlador</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>265</v>
+      </c>
+      <c r="D121" t="n">
+        <v>1.935618776371939e-09</v>
+      </c>
+      <c r="E121" t="n">
+        <v>1.935618776371939e-09</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>deportista</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>deportista</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>268</v>
+      </c>
+      <c r="D122" t="n">
+        <v>1.245872226718348e-06</v>
+      </c>
+      <c r="E122" t="n">
+        <v>1.245872226718348e-06</v>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>detective</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>detective</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>269</v>
+      </c>
+      <c r="D123" t="n">
+        <v>1.890071814614203e-07</v>
+      </c>
+      <c r="E123" t="n">
+        <v>1.890071814614203e-07</v>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>dibujante</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>dibujante</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>271</v>
+      </c>
+      <c r="D124" t="n">
+        <v>2.171249798266217e-05</v>
+      </c>
+      <c r="E124" t="n">
+        <v>2.171249798266217e-05</v>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>director</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>director</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>272</v>
+      </c>
+      <c r="D125" t="n">
+        <v>9.891921309845841e-11</v>
+      </c>
+      <c r="E125" t="n">
+        <v>9.891921309845841e-11</v>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>diseñador</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>diseñador</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>275</v>
+      </c>
+      <c r="D126" t="n">
+        <v>1.364234059053615e-08</v>
+      </c>
+      <c r="E126" t="n">
+        <v>1.364234059053615e-08</v>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>economista</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>economista</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>279</v>
+      </c>
+      <c r="D127" t="n">
+        <v>7.83516497904202e-06</v>
+      </c>
+      <c r="E127" t="n">
+        <v>7.83516497904202e-06</v>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>empleado</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>empleado</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>284</v>
+      </c>
+      <c r="D128" t="n">
+        <v>1.498208121120115e-06</v>
+      </c>
+      <c r="E128" t="n">
+        <v>1.498208121120115e-06</v>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>entrenador</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>entrenador</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>286</v>
+      </c>
+      <c r="D129" t="n">
+        <v>3.412097157706739e-06</v>
+      </c>
+      <c r="E129" t="n">
+        <v>3.412097157706739e-06</v>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>escritor</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>escritor</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>288</v>
+      </c>
+      <c r="D130" t="n">
+        <v>9.735371397923132e-10</v>
+      </c>
+      <c r="E130" t="n">
+        <v>9.735371397923132e-10</v>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>farmacéutico</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>farmacéutico</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>290</v>
+      </c>
+      <c r="D131" t="n">
+        <v>1.306843078197062e-09</v>
+      </c>
+      <c r="E131" t="n">
+        <v>1.306843078197062e-09</v>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>filósofo</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>filósofo</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>291</v>
+      </c>
+      <c r="D132" t="n">
+        <v>1.540574203318101e-06</v>
+      </c>
+      <c r="E132" t="n">
+        <v>1.540574203318101e-06</v>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>fiscal</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>fiscal</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>295</v>
+      </c>
+      <c r="D133" t="n">
+        <v>1.425423251655289e-10</v>
+      </c>
+      <c r="E133" t="n">
+        <v>1.425423251655289e-10</v>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>fotógrafo</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>fotógrafo</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>300</v>
+      </c>
+      <c r="D134" t="n">
+        <v>1.380969706588075e-06</v>
+      </c>
+      <c r="E134" t="n">
+        <v>1.380969706588075e-06</v>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>gerente</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>gerente</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>302</v>
+      </c>
+      <c r="D135" t="n">
+        <v>9.850472437733515e-09</v>
+      </c>
+      <c r="E135" t="n">
+        <v>9.850472437733515e-09</v>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>herrero</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>herrero</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>303</v>
+      </c>
+      <c r="D136" t="n">
+        <v>9.691745184170486e-09</v>
+      </c>
+      <c r="E136" t="n">
+        <v>9.691745184170486e-09</v>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>historiador</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>historiador</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>304</v>
+      </c>
+      <c r="D137" t="n">
+        <v>8.855818123265635e-06</v>
+      </c>
+      <c r="E137" t="n">
+        <v>8.855818123265635e-06</v>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>ingeniero</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>ingeniero</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>306</v>
+      </c>
+      <c r="D138" t="n">
+        <v>5.642918909920525e-10</v>
+      </c>
+      <c r="E138" t="n">
+        <v>5.642918909920525e-10</v>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>intérprete</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>intérprete</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>307</v>
+      </c>
+      <c r="D139" t="n">
+        <v>4.67789050162537e-06</v>
+      </c>
+      <c r="E139" t="n">
+        <v>4.67789050162537e-06</v>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>jefe</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>jefe</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>309</v>
+      </c>
+      <c r="D140" t="n">
+        <v>6.465324275950479e-09</v>
+      </c>
+      <c r="E140" t="n">
+        <v>6.465324275950479e-09</v>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>juez</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>juez</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>316</v>
+      </c>
+      <c r="D141" t="n">
+        <v>2.819599785652827e-06</v>
+      </c>
+      <c r="E141" t="n">
+        <v>2.819599785652827e-06</v>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>maestro</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>maestro</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>317</v>
+      </c>
+      <c r="D142" t="n">
+        <v>4.029350464396231e-11</v>
+      </c>
+      <c r="E142" t="n">
+        <v>4.029350464396231e-11</v>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>magistrado</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>magistrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>319</v>
+      </c>
+      <c r="D143" t="n">
+        <v>2.443312929756303e-08</v>
+      </c>
+      <c r="E143" t="n">
+        <v>2.443312929756303e-08</v>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>marinero</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>marinero</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>321</v>
+      </c>
+      <c r="D144" t="n">
+        <v>3.316446839374265e-10</v>
+      </c>
+      <c r="E144" t="n">
+        <v>3.316446839374265e-10</v>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>matemático</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>matemático</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>323</v>
+      </c>
+      <c r="D145" t="n">
+        <v>3.257836311831852e-08</v>
+      </c>
+      <c r="E145" t="n">
+        <v>3.257836311831852e-08</v>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>mayordomo</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>mayordomo</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>324</v>
+      </c>
+      <c r="D146" t="n">
+        <v>6.211257896904243e-11</v>
+      </c>
+      <c r="E146" t="n">
+        <v>6.211257896904243e-11</v>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>mecánico</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>mecánico</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>326</v>
+      </c>
+      <c r="D147" t="n">
+        <v>1.584407827159851e-09</v>
+      </c>
+      <c r="E147" t="n">
+        <v>1.584407827159851e-09</v>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>médico</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>médico</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>327</v>
+      </c>
+      <c r="D148" t="n">
+        <v>1.401989857541253e-09</v>
+      </c>
+      <c r="E148" t="n">
+        <v>1.401989857541253e-09</v>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>minero</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>minero</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>329</v>
+      </c>
+      <c r="D149" t="n">
+        <v>7.911058673926163e-06</v>
+      </c>
+      <c r="E149" t="n">
+        <v>7.911058673926163e-06</v>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>modelo</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>modelo</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>332</v>
+      </c>
+      <c r="D150" t="n">
+        <v>5.755038756660724e-08</v>
+      </c>
+      <c r="E150" t="n">
+        <v>5.755038756660724e-08</v>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>monitor</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>monitor</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>334</v>
+      </c>
+      <c r="D151" t="n">
+        <v>1.189046283656126e-08</v>
+      </c>
+      <c r="E151" t="n">
+        <v>1.189046283656126e-08</v>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>mozo</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>mozo</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>335</v>
+      </c>
+      <c r="D152" t="n">
+        <v>1.109482061778522e-09</v>
+      </c>
+      <c r="E152" t="n">
+        <v>1.109482061778522e-09</v>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>músico</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>músico</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>339</v>
+      </c>
+      <c r="D153" t="n">
+        <v>5.163213700143388e-06</v>
+      </c>
+      <c r="E153" t="n">
+        <v>5.163213700143388e-06</v>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>oficial</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>oficial</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>340</v>
+      </c>
+      <c r="D154" t="n">
+        <v>2.925310400314629e-05</v>
+      </c>
+      <c r="E154" t="n">
+        <v>2.925310400314629e-05</v>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>operador</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>operador</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>344</v>
+      </c>
+      <c r="D155" t="n">
+        <v>3.694764316719557e-08</v>
+      </c>
+      <c r="E155" t="n">
+        <v>3.694764316719557e-08</v>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>organizador</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>organizador</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>349</v>
+      </c>
+      <c r="D156" t="n">
+        <v>2.023659191607852e-11</v>
+      </c>
+      <c r="E156" t="n">
+        <v>2.023659191607852e-11</v>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>peón</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>peón</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>350</v>
+      </c>
+      <c r="D157" t="n">
+        <v>8.342179853570997e-07</v>
+      </c>
+      <c r="E157" t="n">
+        <v>8.342179853570997e-07</v>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>periodista</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>periodista</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>351</v>
+      </c>
+      <c r="D158" t="n">
+        <v>1.730825260892743e-07</v>
+      </c>
+      <c r="E158" t="n">
+        <v>1.730825260892743e-07</v>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>pescador</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>pescador</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>352</v>
+      </c>
+      <c r="D159" t="n">
+        <v>1.817597649278468e-06</v>
+      </c>
+      <c r="E159" t="n">
+        <v>1.817597649278468e-06</v>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>piloto</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>piloto</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>353</v>
+      </c>
+      <c r="D160" t="n">
+        <v>3.019132918780087e-06</v>
+      </c>
+      <c r="E160" t="n">
+        <v>3.019132918780087e-06</v>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>pintor</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>pintor</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>355</v>
+      </c>
+      <c r="D161" t="n">
+        <v>3.271914295055467e-09</v>
+      </c>
+      <c r="E161" t="n">
+        <v>3.271914295055467e-09</v>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>policía</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>policía</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>356</v>
+      </c>
+      <c r="D162" t="n">
+        <v>1.635776357034047e-06</v>
+      </c>
+      <c r="E162" t="n">
+        <v>1.635776357034047e-06</v>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>portavoz</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>portavoz</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>358</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0.0003582084318622947</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0.0003582084318622947</v>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>presidente</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>presidente</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>360</v>
+      </c>
+      <c r="D164" t="n">
+        <v>2.590619985198828e-08</v>
+      </c>
+      <c r="E164" t="n">
+        <v>2.590619985198828e-08</v>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>procurador</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>procurador</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>361</v>
+      </c>
+      <c r="D165" t="n">
+        <v>2.209758775961745e-08</v>
+      </c>
+      <c r="E165" t="n">
+        <v>2.209758775961745e-08</v>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>profesor</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>profesor</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>363</v>
+      </c>
+      <c r="D166" t="n">
+        <v>5.64410072456667e-07</v>
+      </c>
+      <c r="E166" t="n">
+        <v>5.64410072456667e-07</v>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>psicólogo</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>psicólogo</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>365</v>
+      </c>
+      <c r="D167" t="n">
+        <v>1.121892467814689e-09</v>
+      </c>
+      <c r="E167" t="n">
+        <v>1.121892467814689e-09</v>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>químico</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>químico</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>374</v>
+      </c>
+      <c r="D168" t="n">
+        <v>2.321534566362971e-06</v>
+      </c>
+      <c r="E168" t="n">
+        <v>2.321534566362971e-06</v>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>representante</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>representante</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>377</v>
+      </c>
+      <c r="D169" t="n">
+        <v>3.099416190366355e-08</v>
+      </c>
+      <c r="E169" t="n">
+        <v>3.099416190366355e-08</v>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>sacerdote</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>sacerdote</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>378</v>
+      </c>
+      <c r="D170" t="n">
+        <v>6.994007151206461e-08</v>
+      </c>
+      <c r="E170" t="n">
+        <v>6.994007151206461e-08</v>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>sastre</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>sastre</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>379</v>
+      </c>
+      <c r="D171" t="n">
+        <v>6.286261964305595e-07</v>
+      </c>
+      <c r="E171" t="n">
+        <v>6.286261964305595e-07</v>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>secretario</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>secretario</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>386</v>
+      </c>
+      <c r="D172" t="n">
+        <v>1.047956033062292e-07</v>
+      </c>
+      <c r="E172" t="n">
+        <v>1.047956033062292e-07</v>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>supervisor</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>supervisor</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>392</v>
+      </c>
+      <c r="D173" t="n">
+        <v>3.912198565103608e-09</v>
+      </c>
+      <c r="E173" t="n">
+        <v>3.912198565103608e-09</v>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>terapeuta</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>terapeuta</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>393</v>
+      </c>
+      <c r="D174" t="n">
+        <v>2.785329966670247e-09</v>
+      </c>
+      <c r="E174" t="n">
+        <v>2.785329966670247e-09</v>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>traductor</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>traductor</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>394</v>
+      </c>
+      <c r="D175" t="n">
+        <v>1.939052651778184e-08</v>
+      </c>
+      <c r="E175" t="n">
+        <v>1.939052651778184e-08</v>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>vendedor</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>vendedor</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>395</v>
+      </c>
+      <c r="D176" t="n">
+        <v>1.387709912259449e-11</v>
+      </c>
+      <c r="E176" t="n">
+        <v>1.387709912259449e-11</v>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>veterinario</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>veterinario</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>396</v>
+      </c>
+      <c r="D177" t="n">
+        <v>2.268186610754341e-10</v>
+      </c>
+      <c r="E177" t="n">
+        <v>2.268186610754341e-10</v>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>vigilante</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>vigilante</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
